--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem2/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem2/42/word_level_predictions_42.xlsx
@@ -814,730 +814,730 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="G8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="D9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="A10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="A11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="G11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="A12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="G12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="A13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="G13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="A14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="A15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>(Airport</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>Class</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="A17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>Airspace</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="A18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>Unpaved</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="G18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="A19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
         <is>
           <t>Airports</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>12</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2629,213 +2629,213 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F46" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K46" t="b">
-        <v>1</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="G46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2894,468 +2894,468 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" t="n">
         <v>4</v>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" t="n">
         <v>0</v>
       </c>
-      <c r="E48" s="2" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2" t="inlineStr">
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" t="n">
         <v>4</v>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2" t="inlineStr">
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" t="n">
         <v>4</v>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>98FT</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" t="n">
         <v>2</v>
       </c>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" t="n">
         <v>4</v>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" t="n">
         <v>3</v>
       </c>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" t="n">
         <v>4</v>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Recorder</t>
         </is>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2" t="inlineStr">
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" t="n">
         <v>4</v>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="D53" t="n">
         <v>5</v>
       </c>
-      <c r="E53" s="2" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F53" s="2" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2" t="inlineStr">
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" t="n">
         <v>4</v>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" t="n">
         <v>6</v>
       </c>
-      <c r="E54" s="2" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F54" s="2" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2" t="inlineStr">
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" t="n">
         <v>4</v>
       </c>
-      <c r="B55" s="2" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C55" s="2" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D55" s="2" t="n">
+      <c r="D55" t="n">
         <v>7</v>
       </c>
-      <c r="E55" s="2" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F55" s="2" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G55" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2" t="inlineStr">
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" t="n">
         <v>4</v>
       </c>
-      <c r="B56" s="2" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D56" s="2" t="n">
+      <c r="D56" t="n">
         <v>8</v>
       </c>
-      <c r="E56" s="2" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F56" s="2" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G56" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L56" s="2" t="inlineStr">
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -4553,57 +4553,57 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>Now</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10642,158 +10642,158 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="n">
+      <c r="A197" t="n">
         <v>19</v>
       </c>
-      <c r="B197" s="2" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C197" s="2" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t>Running</t>
         </is>
       </c>
-      <c r="D197" s="2" t="n">
+      <c r="D197" t="n">
         <v>0</v>
       </c>
-      <c r="E197" s="2" t="inlineStr">
+      <c r="E197" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F197" s="2" t="inlineStr">
+      <c r="F197" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G197" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L197" s="2" t="inlineStr">
+      <c r="G197" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I197" t="b">
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K197" t="b">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" t="n">
         <v>19</v>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E198" s="2" t="inlineStr">
+      <c r="D198" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F198" s="2" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L198" s="2" t="inlineStr">
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
+      <c r="A199" t="n">
         <v>19</v>
       </c>
-      <c r="B199" s="2" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C199" s="2" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>Simulator</t>
         </is>
       </c>
-      <c r="D199" s="2" t="n">
+      <c r="D199" t="n">
         <v>2</v>
       </c>
-      <c r="E199" s="2" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F199" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G199" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L199" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G199" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K199" t="b">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G227" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -16570,158 +16570,158 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="2" t="n">
+      <c r="A311" t="n">
         <v>28</v>
       </c>
-      <c r="B311" s="2" t="inlineStr">
+      <c r="B311" t="inlineStr">
         <is>
           <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C311" s="2" t="inlineStr">
+      <c r="C311" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="D311" s="2" t="n">
+      <c r="D311" t="n">
         <v>0</v>
       </c>
-      <c r="E311" s="2" t="inlineStr">
+      <c r="E311" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F311" s="2" t="inlineStr">
+      <c r="F311" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G311" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H311" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I311" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J311" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K311" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L311" s="2" t="inlineStr">
+      <c r="G311" t="b">
+        <v>1</v>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I311" t="b">
+        <v>1</v>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K311" t="b">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="2" t="n">
+      <c r="A312" t="n">
         <v>28</v>
       </c>
-      <c r="B312" s="2" t="inlineStr">
+      <c r="B312" t="inlineStr">
         <is>
           <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C312" s="2" t="inlineStr">
+      <c r="C312" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D312" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E312" s="2" t="inlineStr">
+      <c r="D312" t="n">
+        <v>1</v>
+      </c>
+      <c r="E312" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F312" s="2" t="inlineStr">
+      <c r="F312" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G312" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H312" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I312" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J312" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K312" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L312" s="2" t="inlineStr">
+      <c r="G312" t="b">
+        <v>1</v>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I312" t="b">
+        <v>1</v>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K312" t="b">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="2" t="n">
+      <c r="A313" t="n">
         <v>28</v>
       </c>
-      <c r="B313" s="2" t="inlineStr">
+      <c r="B313" t="inlineStr">
         <is>
           <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C313" s="2" t="inlineStr">
+      <c r="C313" t="inlineStr">
         <is>
           <t>Approached</t>
         </is>
       </c>
-      <c r="D313" s="2" t="n">
+      <c r="D313" t="n">
         <v>2</v>
       </c>
-      <c r="E313" s="2" t="inlineStr">
+      <c r="E313" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F313" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G313" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H313" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I313" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J313" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K313" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L313" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G313" t="b">
+        <v>1</v>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I313" t="b">
+        <v>1</v>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K313" t="b">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20753,7 +20753,7 @@
       </c>
       <c r="F391" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G391" s="2" t="b">
@@ -20765,11 +20765,11 @@
         </is>
       </c>
       <c r="I391" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J391" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K391" s="2" t="b">
@@ -20777,7 +20777,7 @@
       </c>
       <c r="L391" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -20805,7 +20805,7 @@
       </c>
       <c r="F392" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G392" s="2" t="b">
@@ -20817,11 +20817,11 @@
         </is>
       </c>
       <c r="I392" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J392" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K392" s="2" t="b">
@@ -20829,7 +20829,7 @@
       </c>
       <c r="L392" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -20869,11 +20869,11 @@
         </is>
       </c>
       <c r="I393" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J393" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K393" s="2" t="b">
@@ -20921,11 +20921,11 @@
         </is>
       </c>
       <c r="I394" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J394" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K394" s="2" t="b">
@@ -20973,11 +20973,11 @@
         </is>
       </c>
       <c r="I395" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J395" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K395" s="2" t="b">
@@ -24162,312 +24162,312 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="2" t="n">
+      <c r="A457" t="n">
         <v>42</v>
       </c>
-      <c r="B457" s="2" t="inlineStr">
+      <c r="B457" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C457" s="2" t="inlineStr">
+      <c r="C457" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D457" s="2" t="n">
+      <c r="D457" t="n">
         <v>0</v>
       </c>
-      <c r="E457" s="2" t="inlineStr">
+      <c r="E457" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F457" s="2" t="inlineStr">
+      <c r="F457" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G457" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I457" s="2" t="b">
+      <c r="G457" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I457" t="b">
+        <v>1</v>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K457" t="b">
+        <v>1</v>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>42</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>Interference</t>
+        </is>
+      </c>
+      <c r="D458" t="n">
+        <v>1</v>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G458" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I458" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K458" t="b">
+        <v>1</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B459" s="2" t="inlineStr">
+        <is>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
+        </is>
+      </c>
+      <c r="C459" s="2" t="inlineStr">
+        <is>
+          <t>Temp</t>
+        </is>
+      </c>
+      <c r="D459" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E459" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F459" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G459" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J457" s="2" t="inlineStr">
+      <c r="J459" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K457" s="2" t="b">
+      <c r="K459" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="L457" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" s="2" t="n">
+      <c r="L459" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B458" s="2" t="inlineStr">
+      <c r="B460" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C458" s="2" t="inlineStr">
-        <is>
-          <t>Interference</t>
-        </is>
-      </c>
-      <c r="D458" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E458" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F458" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G458" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I458" s="2" t="b">
+      <c r="C460" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="D460" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E460" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F460" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G460" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H460" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I460" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J458" s="2" t="inlineStr">
+      <c r="J460" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K458" s="2" t="b">
+      <c r="K460" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="L458" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="n">
+      <c r="L460" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B459" t="inlineStr">
+      <c r="B461" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C459" t="inlineStr">
-        <is>
-          <t>Temp</t>
-        </is>
-      </c>
-      <c r="D459" t="n">
-        <v>2</v>
-      </c>
-      <c r="E459" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F459" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G459" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K459" t="b">
-        <v>1</v>
-      </c>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="n">
+      <c r="C461" s="2" t="inlineStr">
+        <is>
+          <t>Altitude</t>
+        </is>
+      </c>
+      <c r="D461" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E461" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F461" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G461" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H461" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I461" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J461" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K461" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L461" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B460" t="inlineStr">
+      <c r="B462" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C460" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="D460" t="n">
-        <v>3</v>
-      </c>
-      <c r="E460" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F460" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G460" t="b">
-        <v>1</v>
-      </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I460" t="b">
-        <v>1</v>
-      </c>
-      <c r="J460" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K460" t="b">
-        <v>1</v>
-      </c>
-      <c r="L460" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="n">
-        <v>42</v>
-      </c>
-      <c r="B461" t="inlineStr">
-        <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
-        </is>
-      </c>
-      <c r="C461" t="inlineStr">
-        <is>
-          <t>Altitude</t>
-        </is>
-      </c>
-      <c r="D461" t="n">
-        <v>4</v>
-      </c>
-      <c r="E461" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F461" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G461" t="b">
-        <v>1</v>
-      </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I461" t="b">
-        <v>1</v>
-      </c>
-      <c r="J461" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K461" t="b">
-        <v>1</v>
-      </c>
-      <c r="L461" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="n">
-        <v>42</v>
-      </c>
-      <c r="B462" t="inlineStr">
-        <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
-        </is>
-      </c>
-      <c r="C462" t="inlineStr">
+      <c r="C462" s="2" t="inlineStr">
         <is>
           <t>98ft</t>
         </is>
       </c>
-      <c r="D462" t="n">
+      <c r="D462" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E462" t="inlineStr">
+      <c r="E462" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F462" t="inlineStr">
+      <c r="F462" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G462" t="b">
-        <v>1</v>
-      </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I462" t="b">
-        <v>1</v>
-      </c>
-      <c r="J462" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K462" t="b">
-        <v>1</v>
-      </c>
-      <c r="L462" t="inlineStr">
+      <c r="G462" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H462" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I462" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J462" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K462" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L462" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -26213,7 +26213,7 @@
       </c>
       <c r="F496" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G496" s="2" t="b">
@@ -26237,7 +26237,7 @@
       </c>
       <c r="L496" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem2/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem2/42/word_level_predictions_42.xlsx
@@ -814,730 +814,730 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" t="n">
         <v>3</v>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" t="n">
         <v>4</v>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" t="n">
         <v>5</v>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" t="n">
         <v>6</v>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>(Airport</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" t="n">
         <v>7</v>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Class</t>
         </is>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" t="n">
         <v>8</v>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Airspace</t>
         </is>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" t="n">
         <v>9</v>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Unpaved</t>
         </is>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" t="n">
         <v>10</v>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Airports</t>
         </is>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" t="n">
         <v>11</v>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" t="n">
         <v>12</v>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" t="n">
         <v>13</v>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2605,237 +2605,237 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Settings</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>7</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>8</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>update</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>9</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>firmware</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>10</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K42" t="b">
-        <v>1</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>Settings</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>update</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F45" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G45" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
-        <is>
-          <t>firmware</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E46" s="2" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2" t="inlineStr">
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2894,468 +2894,468 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="G48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="D49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t>98FT</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>Recorder</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="G52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E53" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F53" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="G53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="G54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E55" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="G55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E56" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="G56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4529,81 +4529,81 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>8</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Strong Interference Now Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Now</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>2</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>Strong Interference Now Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>Now</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10642,158 +10642,158 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
+      <c r="A197" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B197" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="C197" s="2" t="inlineStr">
         <is>
           <t>Running</t>
         </is>
       </c>
-      <c r="D197" t="n">
+      <c r="D197" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E197" t="inlineStr">
+      <c r="E197" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
+      <c r="F197" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G197" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I197" t="b">
-        <v>1</v>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K197" t="b">
-        <v>1</v>
-      </c>
-      <c r="L197" t="inlineStr">
+      <c r="G197" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J197" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L197" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D198" t="n">
-        <v>1</v>
-      </c>
-      <c r="E198" t="inlineStr">
+      <c r="D198" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="F198" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G198" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K198" t="b">
-        <v>1</v>
-      </c>
-      <c r="L198" t="inlineStr">
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
+      <c r="A199" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B199" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
+      <c r="C199" s="2" t="inlineStr">
         <is>
           <t>Simulator</t>
         </is>
       </c>
-      <c r="D199" t="n">
+      <c r="D199" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E199" t="inlineStr">
+      <c r="E199" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G199" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I199" t="b">
-        <v>1</v>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K199" t="b">
-        <v>1</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F199" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G199" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J199" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G227" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16570,158 +16570,158 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="n">
+      <c r="A311" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B311" t="inlineStr">
+      <c r="B311" s="2" t="inlineStr">
         <is>
           <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C311" t="inlineStr">
+      <c r="C311" s="2" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="D311" t="n">
+      <c r="D311" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E311" t="inlineStr">
+      <c r="E311" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F311" t="inlineStr">
+      <c r="F311" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G311" t="b">
-        <v>1</v>
-      </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I311" t="b">
-        <v>1</v>
-      </c>
-      <c r="J311" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K311" t="b">
-        <v>1</v>
-      </c>
-      <c r="L311" t="inlineStr">
+      <c r="G311" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H311" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I311" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J311" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K311" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L311" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="n">
+      <c r="A312" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B312" t="inlineStr">
+      <c r="B312" s="2" t="inlineStr">
         <is>
           <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C312" t="inlineStr">
+      <c r="C312" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D312" t="n">
-        <v>1</v>
-      </c>
-      <c r="E312" t="inlineStr">
+      <c r="D312" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E312" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F312" t="inlineStr">
+      <c r="F312" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G312" t="b">
-        <v>1</v>
-      </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I312" t="b">
-        <v>1</v>
-      </c>
-      <c r="J312" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K312" t="b">
-        <v>1</v>
-      </c>
-      <c r="L312" t="inlineStr">
+      <c r="G312" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H312" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I312" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J312" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K312" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L312" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="n">
+      <c r="A313" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B313" t="inlineStr">
+      <c r="B313" s="2" t="inlineStr">
         <is>
           <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C313" t="inlineStr">
+      <c r="C313" s="2" t="inlineStr">
         <is>
           <t>Approached</t>
         </is>
       </c>
-      <c r="D313" t="n">
+      <c r="D313" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E313" t="inlineStr">
+      <c r="E313" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F313" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G313" t="b">
-        <v>1</v>
-      </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I313" t="b">
-        <v>1</v>
-      </c>
-      <c r="J313" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K313" t="b">
-        <v>1</v>
-      </c>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F313" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G313" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H313" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I313" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J313" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K313" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L313" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -20753,7 +20753,7 @@
       </c>
       <c r="F391" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G391" s="2" t="b">
@@ -20765,11 +20765,11 @@
         </is>
       </c>
       <c r="I391" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J391" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K391" s="2" t="b">
@@ -20777,7 +20777,7 @@
       </c>
       <c r="L391" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20805,7 +20805,7 @@
       </c>
       <c r="F392" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G392" s="2" t="b">
@@ -20817,11 +20817,11 @@
         </is>
       </c>
       <c r="I392" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J392" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K392" s="2" t="b">
@@ -20829,7 +20829,7 @@
       </c>
       <c r="L392" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20869,11 +20869,11 @@
         </is>
       </c>
       <c r="I393" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J393" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K393" s="2" t="b">
@@ -20921,11 +20921,11 @@
         </is>
       </c>
       <c r="I394" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J394" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K394" s="2" t="b">
@@ -20973,11 +20973,11 @@
         </is>
       </c>
       <c r="I395" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J395" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K395" s="2" t="b">
@@ -24162,312 +24162,312 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="n">
+      <c r="A457" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B457" t="inlineStr">
+      <c r="B457" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C457" t="inlineStr">
+      <c r="C457" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D457" t="n">
+      <c r="D457" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E457" t="inlineStr">
+      <c r="E457" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F457" t="inlineStr">
+      <c r="F457" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G457" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I457" t="b">
-        <v>1</v>
-      </c>
-      <c r="J457" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K457" t="b">
-        <v>1</v>
-      </c>
-      <c r="L457" t="inlineStr">
+      <c r="G457" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J457" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L457" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="n">
+      <c r="A458" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B458" t="inlineStr">
+      <c r="B458" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C458" t="inlineStr">
+      <c r="C458" s="2" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D458" t="n">
-        <v>1</v>
-      </c>
-      <c r="E458" t="inlineStr">
+      <c r="D458" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E458" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F458" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G458" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I458" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K458" t="b">
-        <v>1</v>
-      </c>
-      <c r="L458" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F458" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G458" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J458" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L458" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="2" t="n">
+      <c r="A459" t="n">
         <v>42</v>
       </c>
-      <c r="B459" s="2" t="inlineStr">
+      <c r="B459" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C459" s="2" t="inlineStr">
+      <c r="C459" t="inlineStr">
         <is>
           <t>Temp</t>
         </is>
       </c>
-      <c r="D459" s="2" t="n">
+      <c r="D459" t="n">
         <v>2</v>
       </c>
-      <c r="E459" s="2" t="inlineStr">
+      <c r="E459" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F459" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G459" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J459" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K459" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L459" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G459" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K459" t="b">
+        <v>1</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="460">
-      <c r="A460" s="2" t="n">
+      <c r="A460" t="n">
         <v>42</v>
       </c>
-      <c r="B460" s="2" t="inlineStr">
+      <c r="B460" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C460" s="2" t="inlineStr">
+      <c r="C460" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="D460" s="2" t="n">
+      <c r="D460" t="n">
         <v>3</v>
       </c>
-      <c r="E460" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F460" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G460" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H460" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I460" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J460" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K460" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L460" s="2" t="inlineStr">
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G460" t="b">
+        <v>1</v>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I460" t="b">
+        <v>1</v>
+      </c>
+      <c r="J460" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K460" t="b">
+        <v>1</v>
+      </c>
+      <c r="L460" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="461">
-      <c r="A461" s="2" t="n">
+      <c r="A461" t="n">
         <v>42</v>
       </c>
-      <c r="B461" s="2" t="inlineStr">
+      <c r="B461" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C461" s="2" t="inlineStr">
+      <c r="C461" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D461" s="2" t="n">
+      <c r="D461" t="n">
         <v>4</v>
       </c>
-      <c r="E461" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F461" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G461" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H461" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I461" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J461" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K461" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L461" s="2" t="inlineStr">
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G461" t="b">
+        <v>1</v>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I461" t="b">
+        <v>1</v>
+      </c>
+      <c r="J461" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K461" t="b">
+        <v>1</v>
+      </c>
+      <c r="L461" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="462">
-      <c r="A462" s="2" t="n">
+      <c r="A462" t="n">
         <v>42</v>
       </c>
-      <c r="B462" s="2" t="inlineStr">
+      <c r="B462" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C462" s="2" t="inlineStr">
+      <c r="C462" t="inlineStr">
         <is>
           <t>98ft</t>
         </is>
       </c>
-      <c r="D462" s="2" t="n">
+      <c r="D462" t="n">
         <v>5</v>
       </c>
-      <c r="E462" s="2" t="inlineStr">
+      <c r="E462" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F462" s="2" t="inlineStr">
+      <c r="F462" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G462" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H462" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I462" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J462" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K462" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L462" s="2" t="inlineStr">
+      <c r="G462" t="b">
+        <v>1</v>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I462" t="b">
+        <v>1</v>
+      </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K462" t="b">
+        <v>1</v>
+      </c>
+      <c r="L462" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -26213,7 +26213,7 @@
       </c>
       <c r="F496" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G496" s="2" t="b">
@@ -26237,7 +26237,7 @@
       </c>
       <c r="L496" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
